--- a/resources/example_template.xlsx
+++ b/resources/example_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Exemple" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Example Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,107 +437,112 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>speak_time</t>
+          <t>column_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>speak_person</t>
+          <t>column_2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>idea_1</t>
+          <t>column_3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>idea_2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>idea_3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>idea_4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>idea_5</t>
+          <t>column_4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>Value 1A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Value 2A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Value 3A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Value 4A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>Value 1B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>Value 2B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Value 3B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Value 4B</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Value 1C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>Value 2C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Value 3C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Value 4C</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>Value 1D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>Value 2D</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Value 3D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Value 4D</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -550,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,76 +566,144 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instructions (Français)</t>
+          <t>Instructions (English / Français)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colonne 1: speak_time - Le temps/tour de parole (T1, T2, T3... ou 1, 2, 3...)</t>
+          <t>This is a generic template showing Excel data structure.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colonne 2: speak_person - La personne qui parle (P1, P2, P3... ou noms réels)</t>
+          <t>Ceci est un modèle générique montrant la structure des données Excel.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colonnes suivantes: idea_1, idea_2, etc. - Les idées/thèmes mentionnés</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Your Excel files can have any structure - any number of columns, any column names.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Les valeurs dans les colonnes idea peuvent se répéter.</t>
+          <t>Vos fichiers Excel peuvent avoir n'importe quelle structure - nombre de colonnes, noms de colonnes.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Vous pouvez avoir autant de colonnes idea que nécessaire.</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>To use this tool:</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Exemple de données:</t>
+          <t>Pour utiliser cet outil:</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>T1, P1, Innovation, Collaboration, Innovation</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T1, P1, Technologie, Innovation, Design</t>
+          <t>1. Place your Excel files in resources/ directory</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T2, P5, Collaboration, Stratégie, Technologie</t>
+          <t>1. Placez vos fichiers Excel dans le répertoire resources/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2. Convert to CSV for easy inspection: excel-to-graph convert resources/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2. Convertir en CSV pour inspection facile: excel-to-graph convert resources/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3. Use Claude Code to generate visualizations</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3. Utilisez Claude Code pour générer des visualisations</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Example prompts:</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Exemples de prompts:</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "Show me the structure of my Excel data"</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "Create a bar chart comparing column_1 values"</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "Generate a scatter plot of column_3 vs column_4"</t>
         </is>
       </c>
     </row>
